--- a/src/main/resources/task2.xlsx
+++ b/src/main/resources/task2.xlsx
@@ -161,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,19 +580,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
